--- a/biology/Médecine/Victor_Mac-Auliffe/Victor_Mac-Auliffe.xlsx
+++ b/biology/Médecine/Victor_Mac-Auliffe/Victor_Mac-Auliffe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Mac-Auliffe, né le 7 mars 1870 à Zanzibar et mort le 17 décembre 1927 à La Réunion, est un médecin membre de l'Académie de la Réunion.
 Fils de Jean-Marie Mac-Auliffe, médecin à Cilaos, il connaît une carrière faite de dévouement et de bons soins qui va lui attirer la sympathie de la population réunionnaise. Militaire, il s'embarque pour Madagascar avec une expédition française en 1895. Il fait figure de héros en 1919, lors de l'épidémie de grippe espagnole et reçoit la Légion d'honneur en 1925. Il meurt en décembre 1927 à La Réunion.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Mac-Auliffe est né le 7 mars 1870 à Zanzibar, où son père était en poste. Venu avec sa famille à la Réunion alors qu’il était enfant, il a fait ses classes dans ce qui était alors le seul lycée de l’île qui ne portait pas encore le nom de Leconte de Lisle. Il fait ses études de médecine en France, puis passe quelques années dans divers hôpitaux militaires où il se perfectionne en chirurgie.
 Il est, en 1895, attaché comme médecin aux troupes coloniales, pendant la guerre de Madagascar qui devint possession française. Il démissionne de l’armée en 1898 pour venir exercer la médecine à la Réunion.
